--- a/Input/Rak_Mednet/benefits1.xlsx
+++ b/Input/Rak_Mednet/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">Physiotherapy</t>
   </si>
   <si>
-    <t xml:space="preserve">Maternity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)</t>
   </si>
   <si>
@@ -172,7 +169,7 @@
     <t xml:space="preserve">Routine Maternity</t>
   </si>
   <si>
-    <t xml:space="preserve">Dental Filter</t>
+    <t xml:space="preserve">Dental filter</t>
   </si>
   <si>
     <t xml:space="preserve">Wellness</t>
@@ -181,25 +178,28 @@
     <t xml:space="preserve">Optical</t>
   </si>
   <si>
+    <t xml:space="preserve">copay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$copay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">companyName</t>
+  </si>
+  <si>
     <t xml:space="preserve">startDate</t>
   </si>
   <si>
+    <t xml:space="preserve">endDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">residency</t>
   </si>
   <si>
-    <t xml:space="preserve">companyName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$copay</t>
+    <t xml:space="preserve">frequency</t>
   </si>
   <si>
     <t xml:space="preserve">coverages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequency</t>
   </si>
   <si>
     <t xml:space="preserve">Family Care Product</t>
@@ -219,25 +219,22 @@
 * No elective treatment reimbursement for Silk Road Network within UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 subject to declaration with 6 months wait</t>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to declaration with 6 months wait</t>
   </si>
   <si>
     <t xml:space="preserve">Private Room</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
+    <t xml:space="preserve">Not Available</t>
   </si>
   <si>
     <t xml:space="preserve">Covered with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with $ co-pay. Consultations covered with 20% co-pay with AED $ max</t>
+    <t xml:space="preserve">Medicines covered in full with $ co-pay and diagnostics &amp; lab tests covered in full with NIL co-pay. Consultations covered with AED $</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full with $ co-pay</t>
@@ -247,20 +244,26 @@
 * Subject to pre-approval</t>
   </si>
   <si>
-    <t xml:space="preserve">15 sessions per year subject to pre-authorization with $ co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full with 10% co-pay
-Normal Delivery and C-Section- Covered up to AED 10,000</t>
+    <t xml:space="preserve">Covered in full with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full subject to pre-authorization with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full with same deductible as selected on consultation 
+Delivery
+Inside AUH- Covered in full with AED 500 deductible
+Outside AUH- OP and IP covered up to AED 10,000</t>
   </si>
   <si>
     <t xml:space="preserve">No wait (LMP must be within policy period)</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical Emergency covered up to AED 150,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to AED 150,000 for the first 30 days</t>
+    <t xml:space="preserve">Inside AUH- Covered in full 
+Outside AUH- Covered up to AED 10,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full for the first 30 days</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
@@ -273,10 +276,6 @@
 Emergencies covered in full</t>
   </si>
   <si>
-    <t xml:space="preserve">DHA benefits only- Diabetic Screening (above 18 years only)
-*Subject to pre-approval</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 1,600 on reimbursement basis</t>
   </si>
   <si>
@@ -293,8 +292,8 @@
     <t xml:space="preserve">Worldwide</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation- 20% up to a max of AED 50 or 20% up to a max of AED 75
-OP- 0% or 10% or 20%
+    <t xml:space="preserve">Consultation- AED 50 or AED 25
+OP- 0% 
 Pharmacy- 0% or 10% or 20% or 30%</t>
   </si>
   <si>
@@ -304,40 +303,49 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE/Dubai</t>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on all OP services/Nil/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 50 - Consultations AED 50, nil co-pay on all OP services/Consultations AED 50, nil co-pay on OP services, Pharma 10% co-pay/Consultations AED 50, nil co-pay on OP services, Pharma 20% co-pay/Consultations AED 50, nil co-pay on OP services, Pharma 30% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">rak</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, nil co-pay on all OP services/Nil/Nil/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to a max of AED 50 - Consultations 20% with AED 50 max, nil co-pay on all OP services/Consultations 20% with AED 50 max, diagnostics &amp; pharma 10% co-pay/Consultations 20% with AED 50 max, diagnostics &amp; pharma 20% co-pay</t>
+    <t xml:space="preserve">2024-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE - Abu Dhabi</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, diagnostics &amp; pharma 10% co-pay/10%/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to a max of AED 75 - Consultations 20% with AED 75 max, nil co-pay on all OP services/Consultations 20% with AED 75 max, diagnostics &amp; pharma 10% co-pay/Consultations 20% with AED 75 max, diagnostics &amp; pharma 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, diagnostics &amp; pharma 20% co-pay/20%/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% with AED 75 max, nil co-pay on all OP services/Nil/Nil/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% with AED 75 max, diagnostics &amp; pharma 10% co-pay/10%/10%/75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultations 20% with AED 75 max, diagnostics &amp; pharma 20% co-pay/20%/20%/75</t>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on OP services, Pharma 10% co-pay/10%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 25 - Consultations AED 25, nil co-pay on all OP services/Consultations AED 25, nil co-pay on OP services, Pharma 10% co-pay/Consultations AED 25, nil co-pay on OP services, Pharma 20% co-pay/Consultations AED 25, nil co-pay on OP services, Pharma 30% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on OP services, Pharma 20% co-pay/20%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, nil co-pay on OP services, Pharma 30% co-pay/30%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 25, nil co-pay on all OP services/Nil/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 25, nil co-pay on OP services, Pharma 10% co-pay/10%/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 25, nil co-pay on OP services, Pharma 20% co-pay/20%/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 25, nil co-pay on OP services, Pharma 30% co-pay/30%/25</t>
   </si>
 </sst>
 </file>
@@ -371,9 +379,9 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -385,18 +393,23 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -433,29 +446,49 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -475,401 +508,446 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AZ2" activeCellId="0" sqref="AZ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="75.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="45.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="58.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="44.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="40.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="45.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="47.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="32.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="44.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="67.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="50.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="71.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="83.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BG1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BI1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BM1" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="230.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="1" t="s">
+      <c r="AT2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AU2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="1" t="s">
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BG2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="BF2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="0" t="s">
+      <c r="BI2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BL2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" s="0" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="3" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH3" s="1" t="s">
+    <row r="3" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BG3" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH4" s="1" t="s">
+      <c r="AH4" s="10"/>
+      <c r="BF4" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="BG4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH5" s="1" t="s">
+      <c r="BF5" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="BG5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH6" s="1" t="s">
+      <c r="BF6" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="BG6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH7" s="1" t="s">
+      <c r="BF7" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="BG7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG9" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
